--- a/Algoritmo_Rota/Planilhas/BCU/PLN_81_20.xlsx
+++ b/Algoritmo_Rota/Planilhas/BCU/PLN_81_20.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,20 +429,30 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>inicio</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Distancia</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>min</t>
+          <t>ativos</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
+        <is>
+          <t>melhor rota</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>caminho</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
         <is>
           <t>Tempo</t>
         </is>
@@ -453,169 +463,86 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5961.533333333334</v>
+        <v>23</v>
       </c>
       <c r="C2" t="n">
-        <v>6398</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4923</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.08954030672709147</v>
+        <v>6143</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>67, 20, 2, 46, 8, 26, 79, 49, 74, 70, 65, 1, 16, 21, 34, 13, 68, 54, 24, 15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23 -&gt; 24 -&gt; 26 -&gt; 2 -&gt; 1 -&gt; 74 -&gt; 65 -&gt; 21 -&gt; 68 -&gt; 70 -&gt; 67 -&gt; 16 -&gt; 15 -&gt; 8 -&gt; 79 -&gt; 34 -&gt; 13 -&gt; 20 -&gt; 49 -&gt; 54 -&gt; 46 -&gt; 23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>23 -&gt; 24 -&gt; 32 -&gt; 31 -&gt; 30 -&gt; 29 -&gt; 28 -&gt; 27 -&gt; 26 -&gt; 25 -&gt; 3 -&gt; 2 -&gt; 1 -&gt; 77 -&gt; 76 -&gt; 74 -&gt; 72 -&gt; 70 -&gt; 68 -&gt; 67 -&gt; 66 -&gt; 65 -&gt; 66 -&gt; 22 -&gt; 21 -&gt; 67 -&gt; 68 -&gt; 70 -&gt; 68 -&gt; 67 -&gt; 68 -&gt; 18 -&gt; 14 -&gt; 15 -&gt; 16 -&gt; 15 -&gt; 16 -&gt; 12 -&gt; 8 -&gt; 5 -&gt; 2 -&gt; 80 -&gt; 79 -&gt; 81 -&gt; 3 -&gt; 25 -&gt; 26 -&gt; 27 -&gt; 28 -&gt; 34 -&gt; 28 -&gt; 29 -&gt; 13 -&gt; 17 -&gt; 20 -&gt; 24 -&gt; 32 -&gt; 44 -&gt; 43 -&gt; 45 -&gt; 49 -&gt; 51 -&gt; 54 -&gt; 51 -&gt; 49 -&gt; 45 -&gt; 46 -&gt; 45 -&gt; 43 -&gt; 32 -&gt; 24 -&gt; 23</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1109156608581543</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>6929.033333333334</v>
+        <v>48</v>
       </c>
       <c r="C3" t="n">
-        <v>7384</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6343</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.09686638514200846</v>
+        <v>6241</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15, 4, 41, 53, 23, 37, 62, 78, 24, 27, 68, 52, 51, 57, 28, 1, 44, 80, 77, 69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>48 -&gt; 52 -&gt; 23 -&gt; 24 -&gt; 37 -&gt; 28 -&gt; 27 -&gt; 80 -&gt; 78 -&gt; 77 -&gt; 1 -&gt; 4 -&gt; 15 -&gt; 69 -&gt; 68 -&gt; 62 -&gt; 57 -&gt; 41 -&gt; 53 -&gt; 44 -&gt; 51 -&gt; 48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>48 -&gt; 50 -&gt; 52 -&gt; 50 -&gt; 47 -&gt; 46 -&gt; 45 -&gt; 43 -&gt; 32 -&gt; 24 -&gt; 23 -&gt; 24 -&gt; 32 -&gt; 41 -&gt; 38 -&gt; 37 -&gt; 30 -&gt; 29 -&gt; 28 -&gt; 27 -&gt; 26 -&gt; 25 -&gt; 3 -&gt; 2 -&gt; 80 -&gt; 79 -&gt; 78 -&gt; 77 -&gt; 1 -&gt; 2 -&gt; 5 -&gt; 4 -&gt; 7 -&gt; 10 -&gt; 14 -&gt; 15 -&gt; 14 -&gt; 18 -&gt; 68 -&gt; 69 -&gt; 68 -&gt; 67 -&gt; 66 -&gt; 65 -&gt; 64 -&gt; 61 -&gt; 62 -&gt; 58 -&gt; 57 -&gt; 55 -&gt; 53 -&gt; 49 -&gt; 45 -&gt; 43 -&gt; 32 -&gt; 41 -&gt; 44 -&gt; 43 -&gt; 45 -&gt; 49 -&gt; 53 -&gt; 49 -&gt; 45 -&gt; 43 -&gt; 44 -&gt; 43 -&gt; 45 -&gt; 49 -&gt; 51 -&gt; 49 -&gt; 45 -&gt; 46 -&gt; 47 -&gt; 48</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1124589443206787</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>6822.566666666667</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>7203</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6110</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.09497574965159099</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>7071.333333333333</v>
-      </c>
-      <c r="C5" t="n">
-        <v>7561</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6403</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.09451382160186768</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6173.433333333333</v>
-      </c>
-      <c r="C6" t="n">
-        <v>6660</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5536</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.09012309710184734</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6656.3</v>
-      </c>
-      <c r="C7" t="n">
-        <v>7330</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5611</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.09738316535949706</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6661.7</v>
-      </c>
-      <c r="C8" t="n">
-        <v>7250</v>
-      </c>
-      <c r="D8" t="n">
-        <v>6197</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.1094856897989909</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>6397.966666666666</v>
-      </c>
-      <c r="C9" t="n">
-        <v>6833</v>
-      </c>
-      <c r="D9" t="n">
-        <v>5419</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.1296142896016439</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>6178.266666666666</v>
-      </c>
-      <c r="C10" t="n">
-        <v>6696</v>
-      </c>
-      <c r="D10" t="n">
-        <v>5270</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.1219084819157918</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>6420.5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6977</v>
-      </c>
-      <c r="D11" t="n">
-        <v>5723</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.1221224864323934</v>
+        <v>6159</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>63, 64, 40, 34, 31, 1, 29, 21, 76, 17, 47, 20, 11, 5, 9, 51, 2, 26, 27, 61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>11 -&gt; 11 -&gt; 29 -&gt; 27 -&gt; 26 -&gt; 34 -&gt; 9 -&gt; 76 -&gt; 5 -&gt; 2 -&gt; 1 -&gt; 63 -&gt; 61 -&gt; 51 -&gt; 47 -&gt; 40 -&gt; 31 -&gt; 17 -&gt; 20 -&gt; 21 -&gt; 64 -&gt; 11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>11 -&gt; 12 -&gt; 13 -&gt; 29 -&gt; 28 -&gt; 27 -&gt; 26 -&gt; 27 -&gt; 28 -&gt; 34 -&gt; 28 -&gt; 9 -&gt; 6 -&gt; 3 -&gt; 81 -&gt; 79 -&gt; 78 -&gt; 77 -&gt; 76 -&gt; 77 -&gt; 78 -&gt; 79 -&gt; 80 -&gt; 2 -&gt; 5 -&gt; 2 -&gt; 1 -&gt; 77 -&gt; 76 -&gt; 74 -&gt; 72 -&gt; 70 -&gt; 68 -&gt; 67 -&gt; 66 -&gt; 65 -&gt; 64 -&gt; 61 -&gt; 62 -&gt; 63 -&gt; 62 -&gt; 61 -&gt; 60 -&gt; 57 -&gt; 55 -&gt; 53 -&gt; 54 -&gt; 51 -&gt; 49 -&gt; 45 -&gt; 46 -&gt; 47 -&gt; 48 -&gt; 42 -&gt; 40 -&gt; 39 -&gt; 38 -&gt; 31 -&gt; 20 -&gt; 17 -&gt; 20 -&gt; 19 -&gt; 18 -&gt; 21 -&gt; 22 -&gt; 66 -&gt; 65 -&gt; 64 -&gt; 65 -&gt; 66 -&gt; 22 -&gt; 21 -&gt; 18 -&gt; 14 -&gt; 10 -&gt; 11</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1093904972076416</v>
       </c>
     </row>
   </sheetData>

--- a/Algoritmo_Rota/Planilhas/BCU/PLN_81_20.xlsx
+++ b/Algoritmo_Rota/Planilhas/BCU/PLN_81_20.xlsx
@@ -454,7 +454,7 @@
         <v>6143</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09931135177612305</v>
+        <v>0.1008932590484619</v>
       </c>
     </row>
   </sheetData>

--- a/Algoritmo_Rota/Planilhas/BCU/PLN_81_20.xlsx
+++ b/Algoritmo_Rota/Planilhas/BCU/PLN_81_20.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,20 +424,25 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Qtd_Nós</t>
+          <t>Índice</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
-        <is>
-          <t>Ativos</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
         <is>
           <t>Distancia</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
       <c r="D1" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
         <is>
           <t>Tempo</t>
         </is>
@@ -445,16 +450,172 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>5942.633333333333</v>
       </c>
       <c r="C2" t="n">
-        <v>6143</v>
+        <v>6432</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1008932590484619</v>
+        <v>5483</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.09813718001047771</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6612.933333333333</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7050</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5826</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1050155719121297</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6618.233333333334</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7019</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5873</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1039325634638468</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7255.133333333333</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7824</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6413</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1026786009470622</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5947.333333333333</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6433</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5259</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.09757927258809408</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6521.066666666667</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7256</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5589</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1068288405736287</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6242.1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6590</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5789</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.1049101829528809</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6362.7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6822</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5738</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.1073963006337484</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5850.9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6329</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5063</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.09931998252868653</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6104.6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6749</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5124</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.09938429991404216</v>
       </c>
     </row>
   </sheetData>
